--- a/doc/FinalSubmission/Bill Of Materials Appendix.xlsx
+++ b/doc/FinalSubmission/Bill Of Materials Appendix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="153">
   <si>
     <t>Digi-Key Part Number</t>
   </si>
@@ -270,15 +270,9 @@
     <t>BatterySpace</t>
   </si>
   <si>
-    <t>Screen 1</t>
-  </si>
-  <si>
     <t>Adafruit</t>
   </si>
   <si>
-    <t>Screen 2</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
@@ -472,6 +466,15 @@
   </si>
   <si>
     <t>Connector/Adaptor</t>
+  </si>
+  <si>
+    <t>HDMI 4 Pi - 5.6" Display 1280x800 (720p) Kit - HDMI/VGA/NTSC/PAL</t>
+  </si>
+  <si>
+    <t>HDMI 4 Pi: 5" Display no Touchscreen 800x480 - HDMI/VGA/NTSC/PAL</t>
+  </si>
+  <si>
+    <t>HDMI Cable</t>
   </si>
 </sst>
 </file>
@@ -604,30 +607,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -671,6 +650,30 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading" xfId="2"/>
@@ -980,7 +983,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -992,42 +995,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>14.9</v>
@@ -1045,13 +1048,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>27.5</v>
@@ -1069,13 +1072,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
         <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
       </c>
       <c r="D5">
         <v>0.56000000000000005</v>
@@ -1093,13 +1096,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>39</v>
@@ -1117,13 +1120,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1138,13 +1141,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>11.45</v>
@@ -1162,13 +1165,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9">
         <v>12.95</v>
@@ -1186,13 +1189,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10">
         <v>49.95</v>
@@ -1210,13 +1213,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1228,20 +1231,20 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <f>D11*F11*1.07 + E11</f>
+        <f t="shared" ref="G11:G23" si="0">D11*F11*1.07 + E11</f>
         <v>14.34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
         <v>117</v>
       </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
@@ -1252,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f>D12*F12*1.07 + E12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
         <v>120</v>
-      </c>
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
       </c>
       <c r="D13">
         <v>1.96</v>
@@ -1276,19 +1279,19 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <f>D13*F13*1.07 + E13</f>
+        <f t="shared" si="0"/>
         <v>4.1943999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>6.48</v>
@@ -1300,19 +1303,19 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <f>D14*F14*1.07 + E14</f>
+        <f t="shared" si="0"/>
         <v>13.867200000000002</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <v>2.97</v>
@@ -1324,19 +1327,19 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <f>D15*F15*1.07 + E15</f>
+        <f t="shared" si="0"/>
         <v>3.1779000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>4.99</v>
@@ -1348,19 +1351,19 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>D16*F16*1.07 + E16</f>
+        <f t="shared" si="0"/>
         <v>5.3393000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
         <v>127</v>
       </c>
-      <c r="B17" t="s">
-        <v>129</v>
-      </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17">
         <v>1.42</v>
@@ -1372,19 +1375,19 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <f>D17*F17*1.07 + E17</f>
+        <f t="shared" si="0"/>
         <v>1.5194000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18">
         <v>3.29</v>
@@ -1396,19 +1399,19 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <f>D18*F18*1.07 + E18</f>
+        <f t="shared" si="0"/>
         <v>3.5203000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D19">
         <v>1.96</v>
@@ -1420,19 +1423,19 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <f>D19*F19*1.07 + E19</f>
+        <f t="shared" si="0"/>
         <v>4.1943999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20">
         <v>25.78</v>
@@ -1444,19 +1447,19 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <f>D20*F20*1.07 + E20</f>
+        <f t="shared" si="0"/>
         <v>27.584600000000002</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D21">
         <v>1.48</v>
@@ -1468,19 +1471,19 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <f>D21*F21*1.07 + E21</f>
+        <f t="shared" si="0"/>
         <v>1.5836000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22">
         <v>3.76</v>
@@ -1492,19 +1495,19 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <f>D22*F22*1.07 + E22</f>
+        <f t="shared" si="0"/>
         <v>4.0232000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23">
         <v>5.46</v>
@@ -1516,13 +1519,13 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <f>D23*F23*1.07 + E23</f>
+        <f t="shared" si="0"/>
         <v>11.6844</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G26">
         <f>SUM(G3:G23)</f>
@@ -1553,763 +1556,793 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="7">
         <v>1206</v>
       </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
         <v>0.5</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="8">
         <f>E2*F2</f>
         <v>0.5</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="10">
         <v>1206</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="10">
         <v>3</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="11">
         <v>0.76</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="16">
         <f t="shared" ref="G3:G24" si="0">E3*F3</f>
         <v>2.2800000000000002</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
         <v>2.3199999999999998</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="16">
         <f t="shared" si="0"/>
         <v>2.3199999999999998</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="10">
         <v>1206</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="11">
         <v>0.39</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="8">
         <v>0.36</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="16">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="10">
         <v>1206</v>
       </c>
-      <c r="E7" s="18">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
         <v>0.38</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="16">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="7">
         <v>1206</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="8">
         <v>0.11</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="10">
         <v>1206</v>
       </c>
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
         <v>0.79</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="16">
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="7">
         <v>1206</v>
       </c>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
         <v>0.79</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="16">
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="10">
         <v>1206</v>
       </c>
-      <c r="E11" s="18">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
         <v>0.79</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="16">
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="7">
         <v>1206</v>
       </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
         <v>0.79</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="16">
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="10">
         <v>1206</v>
       </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
         <v>0.79</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="16">
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="7">
         <v>1206</v>
       </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
         <v>0.79</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="16">
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="10">
         <v>1206</v>
       </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
         <v>0.79</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="16">
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="8">
         <v>0.87</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="16">
         <f t="shared" si="0"/>
         <v>1.74</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
         <v>11.45</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="16">
         <f t="shared" si="0"/>
         <v>11.45</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="15">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16">
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
         <v>4.37</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="16">
         <f t="shared" si="0"/>
         <v>4.37</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
         <v>2.35</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="16">
         <f t="shared" si="0"/>
         <v>2.35</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="16">
         <f t="shared" si="0"/>
         <v>2.0099999999999998</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="18">
-        <v>1</v>
-      </c>
-      <c r="F21" s="19">
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
         <v>1.78</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="16">
         <f t="shared" si="0"/>
         <v>1.78</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="15">
-        <v>1</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
         <v>7.46</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="16">
         <f t="shared" si="0"/>
         <v>7.46</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="18">
-        <v>1</v>
-      </c>
-      <c r="F23" s="19">
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
         <v>17.7</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="16">
         <f t="shared" si="0"/>
         <v>17.7</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="15">
-        <v>1</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
         <v>27.6</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="16">
         <f t="shared" si="0"/>
         <v>27.6</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="19">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11">
         <f>SUM(G2:G24)</f>
         <v>89.19</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="20"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="18">
+      <c r="C27" s="20"/>
+      <c r="D27" s="10">
         <v>1206</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="21"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="15">
+      <c r="C28" s="21"/>
+      <c r="D28" s="7">
         <v>1206</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="20"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="18">
+      <c r="C29" s="20"/>
+      <c r="D29" s="10">
         <v>0.1</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="21"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="15">
+      <c r="C30" s="21"/>
+      <c r="D30" s="7">
         <v>0.1</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="20"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="18">
+      <c r="C31" s="20"/>
+      <c r="D31" s="10">
         <v>1206</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="21"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="15">
+      <c r="C32" s="21"/>
+      <c r="D32" s="7">
         <v>1206</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="18">
+      <c r="C33" s="20"/>
+      <c r="D33" s="10">
         <v>1206</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="21"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="15">
+      <c r="C34" s="21"/>
+      <c r="D34" s="7">
         <v>1206</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="18">
+      <c r="C35" s="20"/>
+      <c r="D35" s="10">
         <v>1206</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="21"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="15">
+      <c r="C36" s="21"/>
+      <c r="D36" s="7">
         <v>1206</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="18">
+      <c r="C37" s="20"/>
+      <c r="D37" s="10">
         <v>1206</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="21"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="22"/>
+      <c r="D40" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
@@ -2320,36 +2353,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2357,68 +2360,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="62.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="2">
         <v>2.66</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="2">
         <f>C2*D2</f>
         <v>5.32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="17">
         <v>37.950000000000003</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="17">
         <v>3</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="17">
         <f>C3*D3</f>
         <v>113.85000000000001</v>
       </c>
@@ -2430,105 +2433,105 @@
       <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="17">
         <v>65.5</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="17">
         <v>2</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="17">
         <f>C4*D4</f>
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="C5" s="17">
         <v>139.94999999999999</v>
       </c>
-      <c r="D5" s="25">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
-        <f t="shared" ref="E5:E10" si="0">C5*D5</f>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" ref="E5:E11" si="0">C5*D5</f>
         <v>139.94999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="25">
+        <v>84</v>
+      </c>
+      <c r="C6" s="17">
         <v>64.95</v>
       </c>
-      <c r="D6" s="25">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>64.95</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="19">
         <v>40</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D8" s="19">
         <v>4</v>
       </c>
-      <c r="E7" s="27">
-        <f>C7*D7</f>
+      <c r="E8" s="19">
+        <f>C8*D8</f>
         <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="25">
-        <v>5.49</v>
-      </c>
-      <c r="D8" s="25">
-        <v>2</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" si="0"/>
-        <v>10.98</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="25">
-        <v>4.25</v>
-      </c>
-      <c r="D9" s="25">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>92</v>
+      </c>
+      <c r="C9" s="17">
+        <v>5.49</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>10.98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2536,96 +2539,114 @@
         <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="25">
-        <v>10</v>
-      </c>
-      <c r="D10" s="25">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="C10" s="17">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="25">
+        <v>144</v>
+      </c>
+      <c r="C11" s="17">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="17">
         <f>'Phase 2 DigiKey Purchase'!G25</f>
         <v>89.19</v>
       </c>
-      <c r="D11" s="25">
-        <v>1</v>
-      </c>
-      <c r="E11" s="25">
-        <f>C11*D11</f>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
+        <f>C12*D12</f>
         <v>89.19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0</v>
-      </c>
-      <c r="D12" s="25">
-        <v>2</v>
-      </c>
-      <c r="E12" s="25">
-        <f>C12*D12</f>
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25">
+        <v>93</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
         <v>2</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="17">
         <f>C13*D13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="17">
+        <f>C14*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="25">
-        <v>0</v>
-      </c>
-      <c r="D14" s="25">
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
         <v>2</v>
       </c>
-      <c r="E14" s="25">
-        <f>C14*D14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="E16" s="25">
-        <f>SUM(E3:E14)</f>
-        <v>724.17000000000007</v>
+      <c r="E15" s="17">
+        <f>C15*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="17">
+        <f>SUM(E3:E15)</f>
+        <v>734.06999999999994</v>
       </c>
     </row>
   </sheetData>
